--- a/results.xlsx
+++ b/results.xlsx
@@ -473,7 +473,7 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>540</v>
+        <v>560</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -496,7 +496,7 @@
         <v>14</v>
       </c>
       <c r="G3">
-        <v>460</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -519,7 +519,7 @@
         <v>15</v>
       </c>
       <c r="G4">
-        <v>440</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
